--- a/バグ報告レポート.xlsx
+++ b/バグ報告レポート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EADBEF-A281-484D-8FD2-BBFA808452BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AAC641-67A1-47CB-BFAA-7D2E24C98C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DBE05C3D-AF8D-424F-B734-87AEB86FE936}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBE05C3D-AF8D-424F-B734-87AEB86FE936}"/>
   </bookViews>
   <sheets>
     <sheet name="デバッグ報告リスト" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -315,6 +315,62 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定の修正</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルボードを使ったエフェクトを追加。テクスチャの修正</t>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石と当たり判定がうまく取れない</t>
+    <rPh sb="0" eb="1">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッターを修正</t>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルフェーズを変更</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -357,12 +413,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -371,7 +436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -382,6 +447,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE18EE8-4B59-403B-BBC0-B8BD8493479A}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -728,32 +796,43 @@
     <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="54.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="54.125" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="54.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -763,6 +842,15 @@
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
@@ -771,6 +859,15 @@
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
@@ -778,6 +875,29 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -816,7 +936,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -947,7 +1067,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/バグ報告レポート.xlsx
+++ b/バグ報告レポート.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AAC641-67A1-47CB-BFAA-7D2E24C98C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3439C2F-659E-4014-A24A-8606A61E773B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBE05C3D-AF8D-424F-B734-87AEB86FE936}"/>
   </bookViews>
   <sheets>
-    <sheet name="デバッグ報告リスト" sheetId="3" r:id="rId1"/>
+    <sheet name="バグリスト" sheetId="3" r:id="rId1"/>
     <sheet name="バグ報告" sheetId="1" r:id="rId2"/>
     <sheet name="設定" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -345,22 +345,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>石と当たり判定がうまく取れない</t>
-    <rPh sb="0" eb="1">
-      <t>イシ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>セッターを修正</t>
     <rPh sb="5" eb="7">
       <t>シュウセイ</t>
@@ -371,6 +355,41 @@
     <t>スキルフェーズを変更</t>
     <rPh sb="8" eb="10">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPUが岩に突っ込んでいく</t>
+    <rPh sb="4" eb="5">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石と当たり判定がうまく取れない（回転すると埋まってしまう）</t>
+    <rPh sb="0" eb="1">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -446,10 +465,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -785,36 +804,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE18EE8-4B59-403B-BBC0-B8BD8493479A}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="73" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="54.125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -849,7 +868,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -883,7 +902,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -891,13 +910,21 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -947,32 +974,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">

--- a/バグ報告レポート.xlsx
+++ b/バグ報告レポート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3439C2F-659E-4014-A24A-8606A61E773B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2EA082-8A73-45D6-802F-C5661AA9F680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBE05C3D-AF8D-424F-B734-87AEB86FE936}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -390,6 +390,46 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩のモデルは作り直す</t>
+    <rPh sb="0" eb="1">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scene::Update()が消えていた</t>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアルが動かない</t>
+    <rPh sb="8" eb="9">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁にめり込んだOBBを戻すようにすればいい</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -804,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE18EE8-4B59-403B-BBC0-B8BD8493479A}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -918,6 +958,9 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -925,6 +968,29 @@
       </c>
       <c r="B7" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/バグ報告レポート.xlsx
+++ b/バグ報告レポート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2EA082-8A73-45D6-802F-C5661AA9F680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF197F2-EE0E-4C7A-A4B1-3D6DA3B9C0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBE05C3D-AF8D-424F-B734-87AEB86FE936}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="設定" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">バグリスト!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">バグ報告!$A$1:$F$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -847,7 +848,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -950,16 +951,16 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -967,13 +968,16 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -981,19 +985,21 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{4BE18EE8-4B59-403B-BBC0-B8BD8493479A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/バグ報告レポート.xlsx
+++ b/バグ報告レポート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF197F2-EE0E-4C7A-A4B1-3D6DA3B9C0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544DB304-6BF3-4F0F-B363-D6D48B172B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBE05C3D-AF8D-424F-B734-87AEB86FE936}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -431,6 +431,44 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>撃った後にスキルを発動すると、クイック時間が反映されない</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦車と弾の当たり判定が取れないときがある</t>
+    <rPh sb="0" eb="2">
+      <t>センシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -845,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE18EE8-4B59-403B-BBC0-B8BD8493479A}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -992,6 +1030,28 @@
       </c>
       <c r="E8" s="1" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/バグ報告レポート.xlsx
+++ b/バグ報告レポート.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544DB304-6BF3-4F0F-B363-D6D48B172B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D439D1-B6F8-4256-B2F7-2806AF31C103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBE05C3D-AF8D-424F-B734-87AEB86FE936}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -469,6 +469,44 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーがスキルを使った後に敵戦車が連射してくる</t>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>テキセンシャ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>レンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベルデザイン</t>
+  </si>
+  <si>
+    <t>クイックリロードができないのに、真ん中の範囲で色が変化する</t>
+    <rPh sb="16" eb="17">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -883,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE18EE8-4B59-403B-BBC0-B8BD8493479A}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1052,6 +1090,28 @@
       </c>
       <c r="B10" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
